--- a/DESEMPLEO.xlsx
+++ b/DESEMPLEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjlo/Documents/2019-2/EST.A.POL2/INFO PARA EL PROYECTO DE ESTADÍSTICA/A NIVEL MUNDIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B183F62-D2A3-F549-AA6A-F1D1E0FB0BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D395E-4EF8-394D-94A0-08FA1C6426F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="219">
   <si>
     <t>St. Lucia</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Lao PDR</t>
   </si>
   <si>
-    <t>2012 [YR2012]</t>
-  </si>
-  <si>
-    <t>2005 [YR2005]</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>2008 [YR2008]</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>Panama</t>
   </si>
   <si>
-    <t>2004 [YR2004]</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
     <t>Finland</t>
   </si>
   <si>
-    <t>2007 [YR2007]</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -373,9 +358,6 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>2015 [YR2015]</t>
-  </si>
-  <si>
     <t>Iran, Islamic Rep.</t>
   </si>
   <si>
@@ -391,9 +373,6 @@
     <t>Guinea</t>
   </si>
   <si>
-    <t>2006 [YR2006]</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -403,18 +382,12 @@
     <t>Micronesia, Fed. Sts.</t>
   </si>
   <si>
-    <t>2018 [YR2018]</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>2009 [YR2009]</t>
-  </si>
-  <si>
     <t>Gambia, The</t>
   </si>
   <si>
@@ -493,9 +466,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>2011 [YR2011]</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -523,9 +493,6 @@
     <t>Hong Kong SAR, China</t>
   </si>
   <si>
-    <t>2014 [YR2014]</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -541,9 +508,6 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>2017 [YR2017]</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -604,9 +568,6 @@
     <t>Lesotho</t>
   </si>
   <si>
-    <t>2010 [YR2010]</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -637,9 +598,6 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>2013 [YR2013]</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -662,9 +620,6 @@
   </si>
   <si>
     <t>Niger</t>
-  </si>
-  <si>
-    <t>2016 [YR2016]</t>
   </si>
   <si>
     <t>Hungary</t>
@@ -1063,65 +1018,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="F230" sqref="F230"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" t="s">
-        <v>127</v>
+        <v>153</v>
+      </c>
+      <c r="B1">
+        <v>2004</v>
+      </c>
+      <c r="C1">
+        <v>2005</v>
+      </c>
+      <c r="D1">
+        <v>2006</v>
+      </c>
+      <c r="E1">
+        <v>2007</v>
+      </c>
+      <c r="F1">
+        <v>2008</v>
+      </c>
+      <c r="G1">
+        <v>2009</v>
+      </c>
+      <c r="H1">
+        <v>2010</v>
+      </c>
+      <c r="I1">
+        <v>2011</v>
+      </c>
+      <c r="J1">
+        <v>2012</v>
+      </c>
+      <c r="K1">
+        <v>2013</v>
+      </c>
+      <c r="L1">
+        <v>2014</v>
+      </c>
+      <c r="M1">
+        <v>2015</v>
+      </c>
+      <c r="N1">
+        <v>2016</v>
+      </c>
+      <c r="O1">
+        <v>2017</v>
+      </c>
+      <c r="P1">
+        <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>3.0869998931884801</v>
@@ -1171,7 +1126,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>17.271999359130898</v>
@@ -1221,7 +1176,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>17.649999618530298</v>
@@ -1271,107 +1226,107 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>23.642999649047901</v>
@@ -1421,57 +1376,57 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>13.522000312805201</v>
@@ -1521,7 +1476,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>11.2159996032715</v>
@@ -1571,57 +1526,57 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B12">
         <v>5.3949999809265101</v>
@@ -1671,7 +1626,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>5.8340001106262198</v>
@@ -1721,7 +1676,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1771,7 +1726,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>10.199999809265099</v>
@@ -1821,7 +1776,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B16">
         <v>1.04100000858307</v>
@@ -1871,7 +1826,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B17">
         <v>4.3020000457763699</v>
@@ -1921,7 +1876,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>9.5699996948242205</v>
@@ -1971,7 +1926,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B19">
         <v>9.2720003128051793</v>
@@ -2021,7 +1976,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B20">
         <v>7.3629999160766602</v>
@@ -2071,7 +2026,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B21">
         <v>10.7980003356934</v>
@@ -2121,7 +2076,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>0.76899999380111705</v>
@@ -2171,57 +2126,57 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>2.4900000095367401</v>
@@ -2271,7 +2226,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <v>3.4619998931884801</v>
@@ -2321,7 +2276,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B26">
         <v>29.8659992218018</v>
@@ -2371,7 +2326,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>21.6840000152588</v>
@@ -2421,7 +2376,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B28">
         <v>9.1049995422363299</v>
@@ -2474,54 +2429,54 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>5.91499996185303</v>
@@ -2571,7 +2526,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>12.036999702453601</v>
@@ -2621,7 +2576,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B32">
         <v>3.3900001049041699</v>
@@ -2671,7 +2626,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B33">
         <v>2.0450000762939502</v>
@@ -2721,7 +2676,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34">
         <v>11.3590002059937</v>
@@ -2771,7 +2726,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B35">
         <v>1.56200003623962</v>
@@ -2821,7 +2776,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>5.1160001754760698</v>
@@ -2871,7 +2826,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B37">
         <v>7.1849999427795401</v>
@@ -2921,57 +2876,57 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>7.5999999046325701</v>
@@ -3021,7 +2976,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>1.46899998188019</v>
@@ -3071,7 +3026,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>7.8119997978210396</v>
@@ -3121,7 +3076,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B42">
         <v>10.161999702453601</v>
@@ -3171,7 +3126,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B43">
         <v>4.5</v>
@@ -3221,7 +3176,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B44">
         <v>13.7170000076294</v>
@@ -3271,7 +3226,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B45">
         <v>4.5710000991821298</v>
@@ -3321,7 +3276,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B46">
         <v>2.9349999427795401</v>
@@ -3371,7 +3326,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B47">
         <v>20.211999893188501</v>
@@ -3421,7 +3376,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B48">
         <v>6.3909997940063503</v>
@@ -3471,7 +3426,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>5.6310000419616699</v>
@@ -3521,7 +3476,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B50">
         <v>13.663999557495099</v>
@@ -3571,7 +3526,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>1.8539999723434399</v>
@@ -3621,57 +3576,57 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B53">
         <v>4.3330001831054696</v>
@@ -3721,7 +3676,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B54">
         <v>8.2100000381469709</v>
@@ -3771,7 +3726,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B55">
         <v>5.2039999961853001</v>
@@ -3821,7 +3776,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>13.0019998550415</v>
@@ -3871,57 +3826,57 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B58">
         <v>6.30299997329712</v>
@@ -3971,7 +3926,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B59">
         <v>5.0019998550415004</v>
@@ -4021,7 +3976,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>10.319999694824199</v>
@@ -4071,7 +4026,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B61">
         <v>6.0500001907348597</v>
@@ -4121,7 +4076,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B62">
         <v>8.5360002517700195</v>
@@ -4171,7 +4126,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B63">
         <v>6.8569998741149902</v>
@@ -4221,7 +4176,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>10.2480001449585</v>
@@ -4271,7 +4226,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <v>2.66499996185303</v>
@@ -4321,57 +4276,57 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <v>4.0630002021789604</v>
@@ -4421,7 +4376,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>10.3579998016357</v>
@@ -4471,7 +4426,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B69">
         <v>8.9139995574951207</v>
@@ -4521,7 +4476,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>12.081000328064</v>
@@ -4571,7 +4526,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B71">
         <v>17.301000595092798</v>
@@ -4621,7 +4576,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>9.8579998016357404</v>
@@ -4671,7 +4626,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B73">
         <v>12.6199998855591</v>
@@ -4771,7 +4726,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B75">
         <v>6.4699997901916504</v>
@@ -4821,57 +4776,57 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B77">
         <v>10.3109998703003</v>
@@ -4921,107 +4876,107 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B80">
         <v>7.6999998092651403</v>
@@ -5071,7 +5026,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B81">
         <v>2.9709999561309801</v>
@@ -5121,7 +5076,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B82">
         <v>4.2979998588562003</v>
@@ -5171,7 +5126,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B83">
         <v>4.6500000953674299</v>
@@ -5221,7 +5176,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B84">
         <v>11.5769996643066</v>
@@ -5271,7 +5226,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>13.5380001068115</v>
@@ -5321,7 +5276,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B86">
         <v>5.9899997711181596</v>
@@ -5371,7 +5326,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B87">
         <v>6.7399997711181596</v>
@@ -5421,7 +5376,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B88">
         <v>5.8319997787475604</v>
@@ -5471,7 +5426,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B89">
         <v>4.0310001373290998</v>
@@ -5521,7 +5476,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B90">
         <v>3.09800004959106</v>
@@ -5571,7 +5526,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B91">
         <v>7.30299997329712</v>
@@ -5621,7 +5576,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B92">
         <v>10.300000190734901</v>
@@ -5671,7 +5626,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B93">
         <v>9.7159996032714808</v>
@@ -5721,7 +5676,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B94">
         <v>4.4910001754760698</v>
@@ -5771,57 +5726,57 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B96">
         <v>13.029000282287599</v>
@@ -5871,7 +5826,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B97">
         <v>7.8660001754760698</v>
@@ -5921,7 +5876,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B98">
         <v>11.439999580383301</v>
@@ -5971,7 +5926,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>4.6999998092651403</v>
@@ -6021,7 +5976,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B100">
         <v>14.694999694824199</v>
@@ -6071,7 +6026,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B101">
         <v>8.3999996185302699</v>
@@ -6121,7 +6076,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B102">
         <v>9.9689998626709002</v>
@@ -6171,57 +6126,57 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B104">
         <v>4.0789999961853001</v>
@@ -6271,7 +6226,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B105">
         <v>3.7000000476837198</v>
@@ -6324,54 +6279,54 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B107">
         <v>1.70000004768372</v>
@@ -6421,7 +6376,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B108">
         <v>8.5299997329711896</v>
@@ -6521,7 +6476,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B110">
         <v>11.708000183105501</v>
@@ -6571,7 +6526,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B111">
         <v>7.8499999046325701</v>
@@ -6621,7 +6576,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B112">
         <v>32.972999572753899</v>
@@ -6671,7 +6626,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>2.52600002288818</v>
@@ -6721,7 +6676,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B114">
         <v>18.715000152587901</v>
@@ -6771,57 +6726,57 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B116">
         <v>10.6840000152588</v>
@@ -6871,7 +6826,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B117">
         <v>5.1129999160766602</v>
@@ -6971,7 +6926,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>37.160999298095703</v>
@@ -7021,7 +6976,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B120">
         <v>3.2019999027252202</v>
@@ -7071,7 +7026,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B121">
         <v>8.0939998626709002</v>
@@ -7121,7 +7076,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>3.53999996185303</v>
@@ -7171,7 +7126,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B123">
         <v>2.7829999923706099</v>
@@ -7221,7 +7176,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>8.75</v>
@@ -7271,7 +7226,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B125">
         <v>7.3169999122619602</v>
@@ -7321,57 +7276,57 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B127">
         <v>10.954999923706101</v>
@@ -7421,7 +7376,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B128">
         <v>8.3369998931884801</v>
@@ -7471,7 +7426,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B129">
         <v>3.93700003623962</v>
@@ -7521,57 +7476,57 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B131">
         <v>8.1700000762939506</v>
@@ -7621,57 +7576,57 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B133">
         <v>7.2880001068115199</v>
@@ -7721,7 +7676,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B134">
         <v>30.7040004730225</v>
@@ -7771,7 +7726,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B135">
         <v>10.829999923706101</v>
@@ -7821,7 +7776,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B136">
         <v>3.40700006484985</v>
@@ -7871,7 +7826,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B137">
         <v>1.1360000371932999</v>
@@ -7921,7 +7876,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B138">
         <v>22.090000152587901</v>
@@ -7971,57 +7926,57 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B140">
         <v>1.8049999475479099</v>
@@ -8121,7 +8076,7 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B142">
         <v>16.309999465942401</v>
@@ -8171,7 +8126,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B143">
         <v>4.0050001144409197</v>
@@ -8221,7 +8176,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B144">
         <v>6.4099998474121103</v>
@@ -8271,7 +8226,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B145">
         <v>2.8369998931884801</v>
@@ -8321,7 +8276,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B146">
         <v>3.9800000190734899</v>
@@ -8371,57 +8326,57 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B148">
         <v>4.2560000419616699</v>
@@ -8471,7 +8426,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B149">
         <v>4.8140001296997097</v>
@@ -8521,7 +8476,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B150">
         <v>0.71499997377395597</v>
@@ -8571,57 +8526,57 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P151" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B152">
         <v>4.3470001220703098</v>
@@ -8671,7 +8626,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B153">
         <v>2.5520000457763699</v>
@@ -8721,7 +8676,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B154">
         <v>6.51300001144409</v>
@@ -8771,7 +8726,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B155">
         <v>4.90100002288818</v>
@@ -8821,7 +8776,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>3.55299997329712</v>
@@ -8871,7 +8826,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B157">
         <v>19.072999954223601</v>
@@ -8921,7 +8876,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B158">
         <v>6.3169999122619602</v>
@@ -8971,7 +8926,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B159">
         <v>10.310000419616699</v>
@@ -9021,7 +8976,7 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B160">
         <v>1.4800000190734901</v>
@@ -9071,7 +9026,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>7.7189998626709002</v>
@@ -9171,7 +9126,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B163">
         <v>0.96299999952316295</v>
@@ -9221,7 +9176,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B164">
         <v>5.1370000839233398</v>
@@ -9271,57 +9226,57 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B166">
         <v>16.120000839233398</v>
@@ -9371,7 +9326,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B167">
         <v>5.8200001716613796</v>
@@ -9421,7 +9376,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B168">
         <v>7.9580001831054696</v>
@@ -9471,7 +9426,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B169">
         <v>18.5</v>
@@ -9521,57 +9476,57 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P170" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B171">
         <v>3.4200000762939502</v>
@@ -9621,7 +9576,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B172">
         <v>5.8400001525878897</v>
@@ -9674,54 +9629,54 @@
         <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B174">
         <v>18.599000930786101</v>
@@ -9771,7 +9726,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B175">
         <v>6.0120000839233398</v>
@@ -9821,7 +9776,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B176">
         <v>2.4849998950958301</v>
@@ -9871,7 +9826,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B177">
         <v>15.0939998626709</v>
@@ -9921,7 +9876,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B178">
         <v>29.576000213623001</v>
@@ -9971,7 +9926,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B179">
         <v>13.4359998703003</v>
@@ -10021,7 +9976,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B180">
         <v>11.0900001525879</v>
@@ -10071,7 +10026,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B181">
         <v>8.3800001144409197</v>
@@ -10121,52 +10076,52 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P182" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
@@ -10221,57 +10176,57 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B185">
         <v>20.4109992980957</v>
@@ -10321,7 +10276,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B186">
         <v>16.3390007019043</v>
@@ -10371,7 +10326,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B187">
         <v>9.4899997711181605</v>
@@ -10421,7 +10376,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B188">
         <v>27.6909999847412</v>
@@ -10471,7 +10426,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B189">
         <v>6.6929998397827104</v>
@@ -10521,7 +10476,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B190">
         <v>4.31599998474121</v>
@@ -10571,7 +10526,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B191">
         <v>9.8319997787475604</v>
@@ -10621,7 +10576,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B192">
         <v>13.411999702453601</v>
@@ -10671,7 +10626,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B193">
         <v>3.43799996376038</v>
@@ -10721,7 +10676,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B194">
         <v>1.5099999904632599</v>
@@ -10771,7 +10726,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B195">
         <v>3.84800004959106</v>
@@ -10821,7 +10776,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B196">
         <v>1.9989999532699601</v>
@@ -10871,7 +10826,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B197">
         <v>3.4920001029968302</v>
@@ -10921,7 +10876,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B198">
         <v>3.5899999141693102</v>
@@ -10971,7 +10926,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B199">
         <v>14.2299995422363</v>
@@ -11021,7 +10976,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B200">
         <v>10.838000297546399</v>
@@ -11071,7 +11026,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B201">
         <v>8.2150001525878906</v>
@@ -11121,107 +11076,107 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P202" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P203" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B204">
         <v>2.6449999809265101</v>
@@ -11271,7 +11226,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B205">
         <v>8.5900001525878906</v>
@@ -11321,7 +11276,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B206">
         <v>3.0339999198913601</v>
@@ -11371,7 +11326,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B207">
         <v>4.5939998626709002</v>
@@ -11421,7 +11376,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B208">
         <v>5.5289998054504403</v>
@@ -11471,7 +11426,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B209">
         <v>12.979000091552701</v>
@@ -11521,7 +11476,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B210">
         <v>8.0579996109008807</v>
@@ -11571,7 +11526,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B211">
         <v>6.3579998016357404</v>
@@ -11621,7 +11576,7 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B212">
         <v>15.069999694824199</v>
@@ -11671,7 +11626,7 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B213">
         <v>2.1400001049041699</v>
@@ -11721,7 +11676,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B214">
         <v>8.9600000381469709</v>
@@ -11771,7 +11726,7 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B215">
         <v>26.7859992980957</v>
@@ -11821,7 +11776,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B216">
         <v>11.8669996261597</v>
@@ -11871,7 +11826,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B217">
         <v>15.2650003433228</v>
@@ -11921,7 +11876,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B218">
         <v>4.3899998664856001</v>

--- a/DESEMPLEO.xlsx
+++ b/DESEMPLEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjlo/Documents/2019-2/EST.A.POL2/INFO PARA EL PROYECTO DE ESTADÍSTICA/A NIVEL MUNDIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D395E-4EF8-394D-94A0-08FA1C6426F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E336EC-8F3E-D44A-88D4-18883D41AD2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:P218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DESEMPLEO.xlsx
+++ b/DESEMPLEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjlo/Documents/2019-2/EST.A.POL2/INFO PARA EL PROYECTO DE ESTADÍSTICA/A NIVEL MUNDIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30494762-D4A0-5D42-ABAB-E05262A0CFE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C03AA-0B18-B34E-8687-9F99355CC758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
